--- a/data/pressure_taps_vs_aoa.xlsx
+++ b/data/pressure_taps_vs_aoa.xlsx
@@ -1,1183 +1,1618 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vai/files/uni/26s/ENAE464/labs/lab02/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49842F1-82F6-5941-9A28-7F4BB825F5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>Inf</t>
+    <t>Channel 1</t>
   </si>
   <si>
-    <t>-Inf</t>
+    <t>Channel 2</t>
   </si>
   <si>
-    <t>#NV</t>
+    <t>Channel 3</t>
+  </si>
+  <si>
+    <t>Channel 4</t>
+  </si>
+  <si>
+    <t>Channel 5</t>
+  </si>
+  <si>
+    <t>Channel 6</t>
+  </si>
+  <si>
+    <t>Channel 7</t>
+  </si>
+  <si>
+    <t>Channel 8</t>
+  </si>
+  <si>
+    <t>Channel 9</t>
+  </si>
+  <si>
+    <t>Channel 10</t>
+  </si>
+  <si>
+    <t>Channel 11</t>
+  </si>
+  <si>
+    <t>Channel 12</t>
+  </si>
+  <si>
+    <t>Channel 13</t>
+  </si>
+  <si>
+    <t>Channel 14</t>
+  </si>
+  <si>
+    <t>Channel 15</t>
+  </si>
+  <si>
+    <t>Channel 16</t>
+  </si>
+  <si>
+    <t>AoA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
-  <fonts count="1">
-    <font/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>-69.206436</v>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>-20</v>
       </c>
       <c r="B2" s="1">
-        <v>-886.344971</v>
+        <v>-69.206435999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>-851.163147</v>
+        <v>-886.34497099999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-788.391968</v>
+        <v>-851.16314699999998</v>
       </c>
       <c r="E2" s="1">
-        <v>-639.438721</v>
+        <v>-788.39196800000002</v>
       </c>
       <c r="F2" s="1">
-        <v>-674.044800</v>
+        <v>-639.43872099999999</v>
       </c>
       <c r="G2" s="1">
+        <v>-674.04480000000001</v>
+      </c>
+      <c r="H2" s="1">
         <v>-545.104919</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>-455.617615</v>
       </c>
-      <c r="I2" s="1">
-        <v>-817.457642</v>
-      </c>
       <c r="J2" s="1">
-        <v>-919.410156</v>
+        <v>-817.45764199999996</v>
       </c>
       <c r="K2" s="1">
-        <v>-917.260193</v>
+        <v>-919.41015600000003</v>
       </c>
       <c r="L2" s="1">
-        <v>-931.250916</v>
+        <v>-917.26019299999996</v>
       </c>
       <c r="M2" s="1">
+        <v>-931.25091599999996</v>
+      </c>
+      <c r="N2" s="1">
         <v>-915.066284</v>
       </c>
-      <c r="N2" s="1">
-        <v>-917.640259</v>
-      </c>
       <c r="O2" s="1">
+        <v>-917.64025900000001</v>
+      </c>
+      <c r="P2" s="1">
         <v>-924.629456</v>
       </c>
-      <c r="P2" s="1">
-        <v>-701.653625</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>-69.603416</v>
+      <c r="Q2" s="1">
+        <v>-701.65362500000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>-18</v>
       </c>
       <c r="B3" s="1">
-        <v>-882.826111</v>
+        <v>-69.603415999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>-854.786499</v>
+        <v>-882.82611099999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-802.204224</v>
+        <v>-854.78649900000005</v>
       </c>
       <c r="E3" s="1">
-        <v>-657.729126</v>
+        <v>-802.20422399999995</v>
       </c>
       <c r="F3" s="1">
-        <v>-692.203796</v>
+        <v>-657.72912599999995</v>
       </c>
       <c r="G3" s="1">
-        <v>-564.708801</v>
+        <v>-692.20379600000001</v>
       </c>
       <c r="H3" s="1">
-        <v>-474.265839</v>
+        <v>-564.70880099999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-769.434509</v>
+        <v>-474.26583900000003</v>
       </c>
       <c r="J3" s="1">
-        <v>-917.917847</v>
+        <v>-769.43450900000005</v>
       </c>
       <c r="K3" s="1">
-        <v>-909.879089</v>
+        <v>-917.91784700000005</v>
       </c>
       <c r="L3" s="1">
-        <v>-919.090088</v>
+        <v>-909.87908900000002</v>
       </c>
       <c r="M3" s="1">
-        <v>-900.592102</v>
+        <v>-919.09008800000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-895.604675</v>
+        <v>-900.59210199999995</v>
       </c>
       <c r="O3" s="1">
-        <v>-912.701416</v>
+        <v>-895.60467500000004</v>
       </c>
       <c r="P3" s="1">
-        <v>-701.046265</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>-69.735741</v>
+        <v>-912.70141599999999</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-701.04626499999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>-16</v>
       </c>
       <c r="B4" s="1">
-        <v>-876.179016</v>
+        <v>-69.735741000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>-865.009338</v>
+        <v>-876.17901600000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-825.352478</v>
+        <v>-865.00933799999996</v>
       </c>
       <c r="E4" s="1">
-        <v>-684.256409</v>
+        <v>-825.35247800000002</v>
       </c>
       <c r="F4" s="1">
-        <v>-727.949585</v>
+        <v>-684.25640899999996</v>
       </c>
       <c r="G4" s="1">
-        <v>-600.341919</v>
+        <v>-727.94958499999996</v>
       </c>
       <c r="H4" s="1">
-        <v>-502.057648</v>
+        <v>-600.34191899999996</v>
       </c>
       <c r="I4" s="1">
+        <v>-502.05764799999997</v>
+      </c>
+      <c r="J4" s="1">
         <v>-688.143372</v>
       </c>
-      <c r="J4" s="1">
-        <v>-895.648071</v>
-      </c>
       <c r="K4" s="1">
-        <v>-892.579407</v>
+        <v>-895.64807099999996</v>
       </c>
       <c r="L4" s="1">
-        <v>-907.257996</v>
+        <v>-892.57940699999995</v>
       </c>
       <c r="M4" s="1">
-        <v>-891.658875</v>
+        <v>-907.25799600000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-885.664734</v>
+        <v>-891.65887499999997</v>
       </c>
       <c r="O4" s="1">
-        <v>-900.205261</v>
+        <v>-885.66473399999995</v>
       </c>
       <c r="P4" s="1">
-        <v>-704.690308</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>-69.471085</v>
+        <v>-900.20526099999995</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-704.69030799999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>-14</v>
       </c>
       <c r="B5" s="1">
-        <v>-861.451416</v>
+        <v>-69.471085000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>-855.433472</v>
+        <v>-861.45141599999999</v>
       </c>
       <c r="D5" s="1">
+        <v>-855.43347200000005</v>
+      </c>
+      <c r="E5" s="1">
         <v>-827.526611</v>
       </c>
-      <c r="E5" s="1">
-        <v>-692.366272</v>
-      </c>
       <c r="F5" s="1">
-        <v>-740.803284</v>
+        <v>-692.36627199999998</v>
       </c>
       <c r="G5" s="1">
-        <v>-627.095520</v>
+        <v>-740.80328399999996</v>
       </c>
       <c r="H5" s="1">
+        <v>-627.09551999999996</v>
+      </c>
+      <c r="I5" s="1">
         <v>-526.480774</v>
       </c>
-      <c r="I5" s="1">
-        <v>-650.031555</v>
-      </c>
       <c r="J5" s="1">
-        <v>-877.166443</v>
+        <v>-650.03155500000003</v>
       </c>
       <c r="K5" s="1">
-        <v>-872.281311</v>
+        <v>-877.16644299999996</v>
       </c>
       <c r="L5" s="1">
-        <v>-894.111145</v>
+        <v>-872.28131099999996</v>
       </c>
       <c r="M5" s="1">
-        <v>-872.887756</v>
+        <v>-894.11114499999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-882.670776</v>
+        <v>-872.88775599999997</v>
       </c>
       <c r="O5" s="1">
-        <v>-890.435547</v>
+        <v>-882.67077600000005</v>
       </c>
       <c r="P5" s="1">
-        <v>-707.484070</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>-69.471085</v>
+        <v>-890.43554700000004</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-707.48406999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>-12</v>
       </c>
       <c r="B6" s="1">
-        <v>-852.849426</v>
+        <v>-69.471085000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>-857.245178</v>
+        <v>-852.84942599999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-835.967346</v>
+        <v>-857.24517800000001</v>
       </c>
       <c r="E6" s="1">
-        <v>-704.826782</v>
+        <v>-835.96734600000002</v>
       </c>
       <c r="F6" s="1">
-        <v>-763.572937</v>
+        <v>-704.82678199999998</v>
       </c>
       <c r="G6" s="1">
-        <v>-647.045410</v>
+        <v>-763.57293700000002</v>
       </c>
       <c r="H6" s="1">
-        <v>-549.219543</v>
+        <v>-647.04540999999995</v>
       </c>
       <c r="I6" s="1">
+        <v>-549.21954300000004</v>
+      </c>
+      <c r="J6" s="1">
         <v>-604.146973</v>
       </c>
-      <c r="J6" s="1">
-        <v>-883.480042</v>
-      </c>
       <c r="K6" s="1">
-        <v>-887.158936</v>
+        <v>-883.48004200000003</v>
       </c>
       <c r="L6" s="1">
-        <v>-896.302307</v>
+        <v>-887.15893600000004</v>
       </c>
       <c r="M6" s="1">
-        <v>-884.421753</v>
+        <v>-896.30230700000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-886.622742</v>
+        <v>-884.42175299999997</v>
       </c>
       <c r="O6" s="1">
-        <v>-881.006714</v>
+        <v>-886.62274200000002</v>
       </c>
       <c r="P6" s="1">
-        <v>-711.249634</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>-69.868073</v>
+        <v>-881.00671399999999</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-711.24963400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>-10</v>
       </c>
       <c r="B7" s="1">
-        <v>-827.043518</v>
+        <v>-69.868072999999995</v>
       </c>
       <c r="C7" s="1">
-        <v>-840.810913</v>
+        <v>-827.04351799999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-837.118408</v>
+        <v>-840.81091300000003</v>
       </c>
       <c r="E7" s="1">
-        <v>-712.206299</v>
+        <v>-837.11840800000004</v>
       </c>
       <c r="F7" s="1">
+        <v>-712.20629899999994</v>
+      </c>
+      <c r="G7" s="1">
         <v>-769.693848</v>
       </c>
-      <c r="G7" s="1">
-        <v>-658.807739</v>
-      </c>
       <c r="H7" s="1">
-        <v>-561.731873</v>
+        <v>-658.80773899999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-602.893311</v>
+        <v>-561.73187299999995</v>
       </c>
       <c r="J7" s="1">
-        <v>-905.290710</v>
+        <v>-602.89331100000004</v>
       </c>
       <c r="K7" s="1">
-        <v>-914.146301</v>
+        <v>-905.29070999999999</v>
       </c>
       <c r="L7" s="1">
-        <v>-929.717102</v>
+        <v>-914.14630099999999</v>
       </c>
       <c r="M7" s="1">
-        <v>-914.387939</v>
+        <v>-929.71710199999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-905.664368</v>
+        <v>-914.38793899999996</v>
       </c>
       <c r="O7" s="1">
-        <v>-881.120300</v>
+        <v>-905.66436799999997</v>
       </c>
       <c r="P7" s="1">
-        <v>-714.164734</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>-69.338768</v>
+        <v>-881.12030000000004</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-714.16473399999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>-8</v>
       </c>
       <c r="B8" s="1">
+        <v>-69.338768000000002</v>
+      </c>
+      <c r="C8" s="1">
         <v>-781.817993</v>
       </c>
-      <c r="C8" s="1">
-        <v>-810.918762</v>
-      </c>
       <c r="D8" s="1">
-        <v>-817.423279</v>
+        <v>-810.91876200000002</v>
       </c>
       <c r="E8" s="1">
-        <v>-696.600464</v>
+        <v>-817.42327899999998</v>
       </c>
       <c r="F8" s="1">
-        <v>-768.714478</v>
+        <v>-696.60046399999999</v>
       </c>
       <c r="G8" s="1">
-        <v>-663.881714</v>
+        <v>-768.71447799999999</v>
       </c>
       <c r="H8" s="1">
-        <v>-566.544373</v>
+        <v>-663.88171399999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-611.919800</v>
+        <v>-566.54437299999995</v>
       </c>
       <c r="J8" s="1">
-        <v>-958.669312</v>
+        <v>-611.91980000000001</v>
       </c>
       <c r="K8" s="1">
-        <v>-951.052124</v>
+        <v>-958.66931199999999</v>
       </c>
       <c r="L8" s="1">
-        <v>-956.010620</v>
+        <v>-951.05212400000005</v>
       </c>
       <c r="M8" s="1">
-        <v>-924.338806</v>
+        <v>-956.01062000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-893.449097</v>
+        <v>-924.33880599999998</v>
       </c>
       <c r="O8" s="1">
-        <v>-836.361450</v>
+        <v>-893.44909700000005</v>
       </c>
       <c r="P8" s="1">
+        <v>-836.36144999999999</v>
+      </c>
+      <c r="Q8" s="1">
         <v>-719.266479</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>-69.338768</v>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>-6</v>
       </c>
       <c r="B9" s="1">
-        <v>-790.680664</v>
+        <v>-69.338768000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>-823.341492</v>
+        <v>-790.68066399999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-839.164673</v>
+        <v>-823.34149200000002</v>
       </c>
       <c r="E9" s="1">
-        <v>-725.997559</v>
+        <v>-839.16467299999999</v>
       </c>
       <c r="F9" s="1">
-        <v>-803.113708</v>
+        <v>-725.99755900000002</v>
       </c>
       <c r="G9" s="1">
-        <v>-703.976379</v>
+        <v>-803.11370799999997</v>
       </c>
       <c r="H9" s="1">
-        <v>-602.036072</v>
+        <v>-703.97637899999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-647.022705</v>
+        <v>-602.03607199999999</v>
       </c>
       <c r="J9" s="1">
+        <v>-647.02270499999997</v>
+      </c>
+      <c r="K9" s="1">
         <v>-1142.911865</v>
       </c>
-      <c r="K9" s="1">
-        <v>-838.143433</v>
-      </c>
       <c r="L9" s="1">
-        <v>-806.465759</v>
+        <v>-838.14343299999996</v>
       </c>
       <c r="M9" s="1">
-        <v>-767.384766</v>
+        <v>-806.46575900000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-740.996155</v>
+        <v>-767.38476600000001</v>
       </c>
       <c r="O9" s="1">
-        <v>-722.646790</v>
+        <v>-740.99615500000004</v>
       </c>
       <c r="P9" s="1">
-        <v>-720.359741</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>-69.603416</v>
+        <v>-722.64679000000001</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-720.35974099999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>-4</v>
       </c>
       <c r="B10" s="1">
+        <v>-69.603415999999996</v>
+      </c>
+      <c r="C10" s="1">
         <v>-825.349243</v>
       </c>
-      <c r="C10" s="1">
-        <v>-855.562866</v>
-      </c>
       <c r="D10" s="1">
-        <v>-885.972595</v>
+        <v>-855.56286599999999</v>
       </c>
       <c r="E10" s="1">
-        <v>-781.283508</v>
+        <v>-885.97259499999996</v>
       </c>
       <c r="F10" s="1">
-        <v>-876.196716</v>
+        <v>-781.28350799999998</v>
       </c>
       <c r="G10" s="1">
-        <v>-790.948059</v>
+        <v>-876.19671600000004</v>
       </c>
       <c r="H10" s="1">
-        <v>-697.061523</v>
+        <v>-790.94805899999994</v>
       </c>
       <c r="I10" s="1">
-        <v>-480.659760</v>
+        <v>-697.06152299999997</v>
       </c>
       <c r="J10" s="1">
-        <v>-887.038574</v>
+        <v>-480.65976000000001</v>
       </c>
       <c r="K10" s="1">
-        <v>-841.026672</v>
+        <v>-887.03857400000004</v>
       </c>
       <c r="L10" s="1">
-        <v>-762.204834</v>
+        <v>-841.02667199999996</v>
       </c>
       <c r="M10" s="1">
-        <v>-737.758057</v>
+        <v>-762.20483400000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-715.248047</v>
+        <v>-737.75805700000001</v>
       </c>
       <c r="O10" s="1">
-        <v>-699.358582</v>
+        <v>-715.24804700000004</v>
       </c>
       <c r="P10" s="1">
-        <v>-712.342773</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>-69.471085</v>
+        <v>-699.35858199999996</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-712.34277299999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>-2</v>
       </c>
       <c r="B11" s="1">
-        <v>-854.283081</v>
+        <v>-69.471085000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>-871.738403</v>
+        <v>-854.28308100000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-919.991577</v>
+        <v>-871.73840299999995</v>
       </c>
       <c r="E11" s="1">
-        <v>-820.116760</v>
+        <v>-919.99157700000001</v>
       </c>
       <c r="F11" s="1">
-        <v>-933.855286</v>
+        <v>-820.11676</v>
       </c>
       <c r="G11" s="1">
-        <v>-876.999329</v>
+        <v>-933.85528599999998</v>
       </c>
       <c r="H11" s="1">
-        <v>-807.109680</v>
+        <v>-876.99932899999999</v>
       </c>
       <c r="I11" s="1">
+        <v>-807.10968000000003</v>
+      </c>
+      <c r="J11" s="1">
         <v>-429.760468</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>-809.553406</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>-758.565247</v>
       </c>
-      <c r="L11" s="1">
-        <v>-743.251526</v>
-      </c>
       <c r="M11" s="1">
-        <v>-717.969238</v>
+        <v>-743.25152600000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-698.122498</v>
+        <v>-717.96923800000002</v>
       </c>
       <c r="O11" s="1">
+        <v>-698.12249799999995</v>
+      </c>
+      <c r="P11" s="1">
         <v>-689.475281</v>
       </c>
-      <c r="P11" s="1">
-        <v>-708.334290</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>-68.941788</v>
+      <c r="Q11" s="1">
+        <v>-708.33429000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>-794.851318</v>
+        <v>-68.941788000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>-898.654114</v>
+        <v>-794.85131799999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-947.871765</v>
+        <v>-898.65411400000005</v>
       </c>
       <c r="E12" s="1">
-        <v>-857.740173</v>
+        <v>-947.87176499999998</v>
       </c>
       <c r="F12" s="1">
-        <v>-984.535950</v>
+        <v>-857.74017300000003</v>
       </c>
       <c r="G12" s="1">
-        <v>-945.909546</v>
+        <v>-984.53594999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>-900.596619</v>
+        <v>-945.90954599999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-435.276642</v>
+        <v>-900.59661900000003</v>
       </c>
       <c r="J12" s="1">
-        <v>-753.534546</v>
+        <v>-435.27664199999998</v>
       </c>
       <c r="K12" s="1">
-        <v>-724.081421</v>
+        <v>-753.53454599999998</v>
       </c>
       <c r="L12" s="1">
+        <v>-724.08142099999998</v>
+      </c>
+      <c r="M12" s="1">
         <v>-721.230591</v>
       </c>
-      <c r="M12" s="1">
-        <v>-701.911987</v>
-      </c>
       <c r="N12" s="1">
-        <v>-687.940369</v>
+        <v>-701.91198699999995</v>
       </c>
       <c r="O12" s="1">
-        <v>-683.784668</v>
+        <v>-687.94036900000003</v>
       </c>
       <c r="P12" s="1">
-        <v>-707.605469</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>-69.868073</v>
+        <v>-683.78466800000001</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-707.60546899999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>-797.197266</v>
+        <v>-69.868072999999995</v>
       </c>
       <c r="C13" s="1">
-        <v>-958.438477</v>
+        <v>-797.19726600000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-983.297546</v>
+        <v>-958.43847700000003</v>
       </c>
       <c r="E13" s="1">
-        <v>-902.622131</v>
+        <v>-983.29754600000001</v>
       </c>
       <c r="F13" s="1">
-        <v>-1055.660400</v>
+        <v>-902.62213099999997</v>
       </c>
       <c r="G13" s="1">
-        <v>-1054.969238</v>
+        <v>-1055.6604</v>
       </c>
       <c r="H13" s="1">
-        <v>-1045.087402</v>
+        <v>-1054.9692379999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-504.855743</v>
+        <v>-1045.0874020000001</v>
       </c>
       <c r="J13" s="1">
-        <v>-681.313965</v>
+        <v>-504.85574300000002</v>
       </c>
       <c r="K13" s="1">
-        <v>-675.723755</v>
+        <v>-681.31396500000005</v>
       </c>
       <c r="L13" s="1">
-        <v>-686.276245</v>
+        <v>-675.72375499999998</v>
       </c>
       <c r="M13" s="1">
+        <v>-686.27624500000002</v>
+      </c>
+      <c r="N13" s="1">
         <v>-673.832764</v>
       </c>
-      <c r="N13" s="1">
-        <v>-671.492249</v>
-      </c>
       <c r="O13" s="1">
-        <v>-670.580200</v>
+        <v>-671.49224900000002</v>
       </c>
       <c r="P13" s="1">
+        <v>-670.58019999999999</v>
+      </c>
+      <c r="Q13" s="1">
         <v>-705.540527</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>-68.941788</v>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>-809.448608</v>
+        <v>-68.941788000000003</v>
       </c>
       <c r="C14" s="1">
+        <v>-809.44860800000004</v>
+      </c>
+      <c r="D14" s="1">
         <v>-891.019409</v>
       </c>
-      <c r="D14" s="1">
-        <v>-1026.268799</v>
-      </c>
       <c r="E14" s="1">
-        <v>-939.761780</v>
+        <v>-1026.2687989999999</v>
       </c>
       <c r="F14" s="1">
+        <v>-939.76178000000004</v>
+      </c>
+      <c r="G14" s="1">
         <v>-1119.562134</v>
       </c>
-      <c r="G14" s="1">
-        <v>-1155.515869</v>
-      </c>
       <c r="H14" s="1">
-        <v>-1196.658569</v>
+        <v>-1155.5158690000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-669.588928</v>
+        <v>-1196.6585689999999</v>
       </c>
       <c r="J14" s="1">
-        <v>-619.428650</v>
+        <v>-669.58892800000001</v>
       </c>
       <c r="K14" s="1">
-        <v>-636.410645</v>
+        <v>-619.42864999999995</v>
       </c>
       <c r="L14" s="1">
+        <v>-636.41064500000005</v>
+      </c>
+      <c r="M14" s="1">
         <v>-653.779358</v>
       </c>
-      <c r="M14" s="1">
-        <v>-648.443604</v>
-      </c>
       <c r="N14" s="1">
-        <v>-651.802490</v>
+        <v>-648.44360400000005</v>
       </c>
       <c r="O14" s="1">
-        <v>-659.993896</v>
+        <v>-651.80249000000003</v>
       </c>
       <c r="P14" s="1">
-        <v>-699.588623</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>-68.941788</v>
+        <v>-659.99389599999995</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-699.58862299999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>-813.879883</v>
+        <v>-68.941788000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>-915.864807</v>
+        <v>-813.87988299999995</v>
       </c>
       <c r="D15" s="1">
+        <v>-915.86480700000004</v>
+      </c>
+      <c r="E15" s="1">
         <v>-1088.807495</v>
       </c>
-      <c r="E15" s="1">
-        <v>-996.257446</v>
-      </c>
       <c r="F15" s="1">
+        <v>-996.25744599999996</v>
+      </c>
+      <c r="G15" s="1">
         <v>-1185.055298</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>-1265.725952</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>-1365.631226</v>
       </c>
-      <c r="I15" s="1">
-        <v>-924.884216</v>
-      </c>
       <c r="J15" s="1">
-        <v>-566.630554</v>
+        <v>-924.88421600000004</v>
       </c>
       <c r="K15" s="1">
-        <v>-601.606934</v>
+        <v>-566.63055399999996</v>
       </c>
       <c r="L15" s="1">
-        <v>-625.125061</v>
+        <v>-601.60693400000002</v>
       </c>
       <c r="M15" s="1">
-        <v>-625.207947</v>
+        <v>-625.12506099999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-634.273804</v>
+        <v>-625.20794699999999</v>
       </c>
       <c r="O15" s="1">
-        <v>-647.244873</v>
+        <v>-634.27380400000004</v>
       </c>
       <c r="P15" s="1">
-        <v>-695.580200</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>-68.941788</v>
+        <v>-647.24487299999998</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-695.58019999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>-799.803955</v>
+        <v>-68.941788000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>-917.417725</v>
+        <v>-799.80395499999997</v>
       </c>
       <c r="D16" s="1">
+        <v>-917.41772500000002</v>
+      </c>
+      <c r="E16" s="1">
         <v>-1053.765259</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>-1006.298462</v>
       </c>
-      <c r="F16" s="1">
-        <v>-1205.254150</v>
-      </c>
       <c r="G16" s="1">
-        <v>-1351.202271</v>
+        <v>-1205.25415</v>
       </c>
       <c r="H16" s="1">
-        <v>-1476.511597</v>
+        <v>-1351.2022710000001</v>
       </c>
       <c r="I16" s="1">
+        <v>-1476.5115969999999</v>
+      </c>
+      <c r="J16" s="1">
         <v>-1122.104004</v>
       </c>
-      <c r="J16" s="1">
-        <v>-540.173950</v>
-      </c>
       <c r="K16" s="1">
-        <v>-588.078613</v>
+        <v>-540.17394999999999</v>
       </c>
       <c r="L16" s="1">
-        <v>-616.891052</v>
+        <v>-588.07861300000002</v>
       </c>
       <c r="M16" s="1">
-        <v>-614.100220</v>
+        <v>-616.89105199999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-628.390930</v>
+        <v>-614.10022000000004</v>
       </c>
       <c r="O16" s="1">
-        <v>-640.984070</v>
+        <v>-628.39093000000003</v>
       </c>
       <c r="P16" s="1">
-        <v>-686.950623</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>-70.000397</v>
+        <v>-640.98406999999997</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-686.95062299999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>-791.592957</v>
+        <v>-70.000397000000007</v>
       </c>
       <c r="C17" s="1">
-        <v>-874.455811</v>
+        <v>-791.59295699999996</v>
       </c>
       <c r="D17" s="1">
+        <v>-874.45581100000004</v>
+      </c>
+      <c r="E17" s="1">
         <v>-1023.199463</v>
       </c>
-      <c r="E17" s="1">
-        <v>-995.047668</v>
-      </c>
       <c r="F17" s="1">
-        <v>-1213.700806</v>
+        <v>-995.04766800000004</v>
       </c>
       <c r="G17" s="1">
-        <v>-1282.292114</v>
+        <v>-1213.7008060000001</v>
       </c>
       <c r="H17" s="1">
+        <v>-1282.2921140000001</v>
+      </c>
+      <c r="I17" s="1">
         <v>-1607.751831</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>-1283.931763</v>
       </c>
-      <c r="J17" s="1">
-        <v>-523.724915</v>
-      </c>
       <c r="K17" s="1">
-        <v>-569.000183</v>
+        <v>-523.72491500000001</v>
       </c>
       <c r="L17" s="1">
+        <v>-569.00018299999999</v>
+      </c>
+      <c r="M17" s="1">
         <v>-606.680969</v>
       </c>
-      <c r="M17" s="1">
-        <v>-605.599365</v>
-      </c>
       <c r="N17" s="1">
-        <v>-629.591492</v>
+        <v>-605.59936500000003</v>
       </c>
       <c r="O17" s="1">
-        <v>-653.050232</v>
+        <v>-629.59149200000002</v>
       </c>
       <c r="P17" s="1">
-        <v>-693.150818</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>-69.471085</v>
+        <v>-653.05023200000005</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-693.15081799999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>-817.398987</v>
+        <v>-69.471085000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>-834.081970</v>
+        <v>-817.39898700000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-963.218689</v>
+        <v>-834.08196999999996</v>
       </c>
       <c r="E18" s="1">
-        <v>-949.802673</v>
+        <v>-963.21868900000004</v>
       </c>
       <c r="F18" s="1">
+        <v>-949.80267300000003</v>
+      </c>
+      <c r="G18" s="1">
         <v>-1197.052124</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>-1260.434082</v>
       </c>
-      <c r="H18" s="1">
-        <v>-1714.813354</v>
-      </c>
       <c r="I18" s="1">
-        <v>-1443.235474</v>
+        <v>-1714.8133539999999</v>
       </c>
       <c r="J18" s="1">
-        <v>-510.036499</v>
+        <v>-1443.2354740000001</v>
       </c>
       <c r="K18" s="1">
-        <v>-557.784363</v>
+        <v>-510.03649899999999</v>
       </c>
       <c r="L18" s="1">
-        <v>-593.067383</v>
+        <v>-557.78436299999998</v>
       </c>
       <c r="M18" s="1">
-        <v>-604.692627</v>
+        <v>-593.06738299999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-629.951721</v>
+        <v>-604.69262700000002</v>
       </c>
       <c r="O18" s="1">
+        <v>-629.95172100000002</v>
+      </c>
+      <c r="P18" s="1">
         <v>-649.749146</v>
       </c>
-      <c r="P18" s="1">
-        <v>-686.950623</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>-68.941788</v>
+      <c r="Q18" s="1">
+        <v>-686.95062299999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>14</v>
       </c>
       <c r="B19" s="1">
-        <v>-844.768799</v>
+        <v>-68.941788000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>-861.386108</v>
+        <v>-844.76879899999994</v>
       </c>
       <c r="D19" s="1">
+        <v>-861.38610800000004</v>
+      </c>
+      <c r="E19" s="1">
         <v>-906.051514</v>
       </c>
-      <c r="E19" s="1">
-        <v>-886.411438</v>
-      </c>
       <c r="F19" s="1">
+        <v>-886.41143799999998</v>
+      </c>
+      <c r="G19" s="1">
         <v>-1153.594116</v>
       </c>
-      <c r="G19" s="1">
-        <v>-1284.937988</v>
-      </c>
       <c r="H19" s="1">
-        <v>-1806.476929</v>
+        <v>-1284.9379879999999</v>
       </c>
       <c r="I19" s="1">
+        <v>-1806.4769289999999</v>
+      </c>
+      <c r="J19" s="1">
         <v>-1602.182495</v>
       </c>
-      <c r="J19" s="1">
-        <v>-494.852722</v>
-      </c>
       <c r="K19" s="1">
-        <v>-553.043640</v>
+        <v>-494.85272200000003</v>
       </c>
       <c r="L19" s="1">
-        <v>-587.578064</v>
+        <v>-553.04363999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>-596.985168</v>
+        <v>-587.57806400000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-623.588562</v>
+        <v>-596.98516800000004</v>
       </c>
       <c r="O19" s="1">
-        <v>-656.123657</v>
+        <v>-623.58856200000002</v>
       </c>
       <c r="P19" s="1">
-        <v>-685.002258</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>-69.338768</v>
+        <v>-656.12365699999998</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-685.00225799999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>-956.724792</v>
+        <v>-69.338768000000002</v>
       </c>
       <c r="C20" s="1">
+        <v>-956.72479199999998</v>
+      </c>
+      <c r="D20" s="1">
         <v>-965.296875</v>
       </c>
-      <c r="D20" s="1">
-        <v>-949.022766</v>
-      </c>
       <c r="E20" s="1">
-        <v>-818.181091</v>
+        <v>-949.02276600000005</v>
       </c>
       <c r="F20" s="1">
+        <v>-818.18109100000004</v>
+      </c>
+      <c r="G20" s="1">
         <v>-957.359375</v>
       </c>
-      <c r="G20" s="1">
-        <v>-949.360779</v>
-      </c>
       <c r="H20" s="1">
-        <v>-949.920288</v>
+        <v>-949.36077899999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-788.693726</v>
+        <v>-949.92028800000003</v>
       </c>
       <c r="J20" s="1">
-        <v>-551.216736</v>
+        <v>-788.69372599999997</v>
       </c>
       <c r="K20" s="1">
-        <v>-592.241150</v>
+        <v>-551.21673599999997</v>
       </c>
       <c r="L20" s="1">
-        <v>-626.881653</v>
+        <v>-592.24114999999995</v>
       </c>
       <c r="M20" s="1">
-        <v>-633.028748</v>
+        <v>-626.88165300000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-658.405762</v>
+        <v>-633.02874799999995</v>
       </c>
       <c r="O20" s="1">
-        <v>-697.313782</v>
+        <v>-658.40576199999998</v>
       </c>
       <c r="P20" s="1">
-        <v>-674.164001</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>-69.471085</v>
+        <v>-697.31378199999995</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>-674.16400099999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>18</v>
       </c>
       <c r="B21" s="1">
+        <v>-69.471085000000002</v>
+      </c>
+      <c r="C21" s="1">
         <v>-976.926514</v>
       </c>
-      <c r="C21" s="1">
-        <v>-956.368042</v>
-      </c>
       <c r="D21" s="1">
-        <v>-943.523499</v>
+        <v>-956.36804199999995</v>
       </c>
       <c r="E21" s="1">
-        <v>-821.326416</v>
+        <v>-943.52349900000002</v>
       </c>
       <c r="F21" s="1">
-        <v>-961.521606</v>
+        <v>-821.32641599999999</v>
       </c>
       <c r="G21" s="1">
-        <v>-957.413757</v>
+        <v>-961.52160600000002</v>
       </c>
       <c r="H21" s="1">
-        <v>-954.240601</v>
+        <v>-957.41375700000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-830.088745</v>
+        <v>-954.24060099999997</v>
       </c>
       <c r="J21" s="1">
-        <v>-527.060730</v>
+        <v>-830.08874500000002</v>
       </c>
       <c r="K21" s="1">
+        <v>-527.06073000000004</v>
+      </c>
+      <c r="L21" s="1">
         <v>-574.897156</v>
       </c>
-      <c r="L21" s="1">
-        <v>-610.084290</v>
-      </c>
       <c r="M21" s="1">
-        <v>-617.727173</v>
+        <v>-610.08429000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-658.165710</v>
+        <v>-617.72717299999999</v>
       </c>
       <c r="O21" s="1">
-        <v>-696.177734</v>
+        <v>-658.16570999999999</v>
       </c>
       <c r="P21" s="1">
-        <v>-669.658203</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>-69.338768</v>
+        <v>-696.17773399999999</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-669.65820299999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>-970.670471</v>
+        <v>-69.338768000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>-971.249451</v>
+        <v>-970.67047100000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-956.184692</v>
+        <v>-971.24945100000002</v>
       </c>
       <c r="E22" s="1">
-        <v>-832.214233</v>
+        <v>-956.18469200000004</v>
       </c>
       <c r="F22" s="1">
-        <v>-959.562866</v>
+        <v>-832.21423300000004</v>
       </c>
       <c r="G22" s="1">
-        <v>-956.493286</v>
+        <v>-959.56286599999999</v>
       </c>
       <c r="H22" s="1">
-        <v>-960.961060</v>
+        <v>-956.49328600000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-877.986633</v>
+        <v>-960.96105999999997</v>
       </c>
       <c r="J22" s="1">
-        <v>-501.294342</v>
+        <v>-877.98663299999998</v>
       </c>
       <c r="K22" s="1">
-        <v>-554.084229</v>
+        <v>-501.29434199999997</v>
       </c>
       <c r="L22" s="1">
-        <v>-595.812073</v>
+        <v>-554.08422900000005</v>
       </c>
       <c r="M22" s="1">
-        <v>-612.853455</v>
+        <v>-595.81207300000005</v>
       </c>
       <c r="N22" s="1">
-        <v>-646.279785</v>
+        <v>-612.85345500000005</v>
       </c>
       <c r="O22" s="1">
-        <v>-688.565552</v>
+        <v>-646.27978499999995</v>
       </c>
       <c r="P22" s="1">
-        <v>-664.665283</v>
-      </c>
+        <v>-688.56555200000003</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>-664.66528300000004</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11">
+      <c r="K35" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>